--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H2">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>110.7635623599437</v>
+        <v>268.1952276871258</v>
       </c>
       <c r="R2">
-        <v>110.7635623599437</v>
+        <v>2413.757049184132</v>
       </c>
       <c r="S2">
-        <v>0.006288198936660265</v>
+        <v>0.01433485323773431</v>
       </c>
       <c r="T2">
-        <v>0.006288198936660265</v>
+        <v>0.01433485323773431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H3">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>96.36302717282389</v>
+        <v>217.932360474353</v>
       </c>
       <c r="R3">
-        <v>96.36302717282389</v>
+        <v>1961.391244269177</v>
       </c>
       <c r="S3">
-        <v>0.005470660857154319</v>
+        <v>0.01164833703453263</v>
       </c>
       <c r="T3">
-        <v>0.005470660857154319</v>
+        <v>0.01164833703453263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H4">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>13.98805760890884</v>
+        <v>32.47836560470344</v>
       </c>
       <c r="R4">
-        <v>13.98805760890884</v>
+        <v>292.3052904423309</v>
       </c>
       <c r="S4">
-        <v>0.0007941211632074832</v>
+        <v>0.001735946639915736</v>
       </c>
       <c r="T4">
-        <v>0.0007941211632074832</v>
+        <v>0.001735946639915736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>8401.523365832745</v>
+        <v>9067.301780607513</v>
       </c>
       <c r="R5">
-        <v>8401.523365832745</v>
+        <v>81605.71602546761</v>
       </c>
       <c r="S5">
-        <v>0.4769659730126317</v>
+        <v>0.4846411377568857</v>
       </c>
       <c r="T5">
-        <v>0.4769659730126317</v>
+        <v>0.4846411377568858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>7309.228839750974</v>
+        <v>7367.985244265238</v>
       </c>
       <c r="R6">
-        <v>7309.228839750974</v>
+        <v>66311.86719838715</v>
       </c>
       <c r="S6">
-        <v>0.4149549187355334</v>
+        <v>0.3938138200488354</v>
       </c>
       <c r="T6">
-        <v>0.4149549187355334</v>
+        <v>0.3938138200488354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>1061.007702713272</v>
+        <v>1098.047660349498</v>
       </c>
       <c r="R7">
-        <v>1061.007702713272</v>
+        <v>9882.428943145478</v>
       </c>
       <c r="S7">
-        <v>0.06023485852060981</v>
+        <v>0.05868990360078345</v>
       </c>
       <c r="T7">
-        <v>0.06023485852060981</v>
+        <v>0.05868990360078345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H8">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>311.3990742928917</v>
+        <v>339.95675986554</v>
       </c>
       <c r="R8">
-        <v>311.3990742928917</v>
+        <v>3059.61083878986</v>
       </c>
       <c r="S8">
-        <v>0.01767855137669073</v>
+        <v>0.01817045851961717</v>
       </c>
       <c r="T8">
-        <v>0.01767855137669073</v>
+        <v>0.01817045851961717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H9">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>270.9136183266161</v>
+        <v>276.244956987601</v>
       </c>
       <c r="R9">
-        <v>270.9136183266161</v>
+        <v>2486.204612888409</v>
       </c>
       <c r="S9">
-        <v>0.0153801366658128</v>
+        <v>0.01476510581575712</v>
       </c>
       <c r="T9">
-        <v>0.0153801366658128</v>
+        <v>0.01476510581575712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H10">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>39.32582247955128</v>
+        <v>41.16866669075855</v>
       </c>
       <c r="R10">
-        <v>39.32582247955128</v>
+        <v>370.5180002168269</v>
       </c>
       <c r="S10">
-        <v>0.002232580731699485</v>
+        <v>0.002200437345938478</v>
       </c>
       <c r="T10">
-        <v>0.002232580731699485</v>
+        <v>0.002200437345938478</v>
       </c>
     </row>
   </sheetData>
